--- a/public/upload/report/DATA SURAT MASUK.xlsx
+++ b/public/upload/report/DATA SURAT MASUK.xlsx
@@ -15,24 +15,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
-  <si>
-    <t>DATA SURAT MASUK</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>DATA REKAP</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
+    <t>TENTANG</t>
+  </si>
+  <si>
+    <t>ASAL INSTANSI</t>
+  </si>
+  <si>
+    <t>TANGGAL MASUK SURAT</t>
+  </si>
+  <si>
+    <t>TANGGAL DISPOSISI KARO</t>
+  </si>
+  <si>
+    <t>TANGGAL DISPOSISI KABAG</t>
+  </si>
+  <si>
+    <t>HASIL KOREKSI</t>
+  </si>
+  <si>
+    <t>TANGGAL KOREKSI</t>
+  </si>
+  <si>
+    <t>PEJABAT YANG MENANDATANGANI</t>
+  </si>
+  <si>
+    <t>SK FINAL</t>
+  </si>
+  <si>
+    <t>PENERIMA</t>
+  </si>
+  <si>
     <t>TANGGAL</t>
   </si>
   <si>
-    <t>PERIHAL</t>
-  </si>
-  <si>
-    <t>NOMOR SURAT</t>
-  </si>
-  <si>
-    <t>ASAL SURAT</t>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>BADAN KEPEGAWAIAN DAERAH</t>
+  </si>
+  <si>
+    <t>09-10-2022</t>
+  </si>
+  <si>
+    <t>10-10-2022</t>
   </si>
 </sst>
 </file>
@@ -388,22 +421,28 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="A3" sqref="A3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22" customWidth="true" style="0"/>
-    <col min="3" max="3" width="40" customWidth="true" style="0"/>
-    <col min="4" max="4" width="40" customWidth="true" style="0"/>
-    <col min="5" max="5" width="40" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5" customWidth="true" style="0"/>
+    <col min="2" max="2" width="25" customWidth="true" style="0"/>
+    <col min="3" max="3" width="25" customWidth="true" style="0"/>
+    <col min="4" max="4" width="25" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25" customWidth="true" style="0"/>
+    <col min="6" max="6" width="25" customWidth="true" style="0"/>
+    <col min="7" max="7" width="25" customWidth="true" style="0"/>
+    <col min="8" max="8" width="25" customWidth="true" style="0"/>
+    <col min="9" max="9" width="25" customWidth="true" style="0"/>
+    <col min="10" max="10" width="25" customWidth="true" style="0"/>
+    <col min="11" max="11" width="25" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +450,14 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -427,12 +472,72 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
